--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_20_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_20_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11871.59179960466</v>
+        <v>2362446.768121325</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11871.59179960466</v>
+        <v>2362446.768121325</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28666.18804170471</v>
+        <v>1723235.15968216</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28666.18804170471</v>
+        <v>1723235.15968216</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1190381978.225928</v>
+        <v>49153016.79004838</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12049.52845885108</v>
+        <v>1292774.948601801</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22249.59242893604</v>
+        <v>2268458.396956475</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32449.65639902099</v>
+        <v>3244141.845311149</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>43732.06364449304</v>
+        <v>4161518.598666631</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>55014.47088996507</v>
+        <v>5078895.352022111</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>65334.07509435099</v>
+        <v>6054173.589111998</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>75653.67929873691</v>
+        <v>7029451.826201881</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>85973.28350312282</v>
+        <v>8004730.063291763</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>97022.18448343629</v>
+        <v>8902178.805349698</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>108158.0291426995</v>
+        <v>9819412.77782088</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>119293.0818827708</v>
+        <v>10736489.15837288</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>130428.1346228421</v>
+        <v>11653565.53892488</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>141563.1873629134</v>
+        <v>12570641.91947688</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>152698.2401029847</v>
+        <v>13487718.30002888</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>163844.1907802679</v>
+        <v>14404235.66430905</v>
       </c>
     </row>
   </sheetData>
@@ -27037,19 +27037,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>131.0000000000003</v>
@@ -27058,7 +27058,7 @@
         <v>-6.835090636741369e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>85</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1230</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
